--- a/data2.xlsx
+++ b/data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\PycharmProjects\Louvre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFEFAA1-5B9D-417F-9127-AC91517CC9BB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B6949F-0A34-4F62-8C5F-49944FD07D4F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15204" windowHeight="6252" xr2:uid="{39FE6E89-DAFD-408F-A53E-6D0DEC2E7108}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15204" windowHeight="6252" activeTab="4" xr2:uid="{39FE6E89-DAFD-408F-A53E-6D0DEC2E7108}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6" sheetId="6" r:id="rId1"/>
@@ -47,7 +47,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -78,6 +78,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -93,7 +99,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -110,6 +116,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -428,11 +437,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342AAF20-417A-4D8F-B035-BABBE7C1F66A}">
   <dimension ref="A1:EF58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BM51" sqref="BM51"/>
+    <sheetView topLeftCell="AQ7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BP16" sqref="BO16:BP16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="46" max="46" width="3" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="3" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:136" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -12050,8 +12063,8 @@
       <c r="AS29">
         <v>0</v>
       </c>
-      <c r="AT29">
-        <v>1</v>
+      <c r="AT29" s="6">
+        <v>4</v>
       </c>
       <c r="AU29">
         <v>1</v>
@@ -12150,178 +12163,178 @@
         <v>1</v>
       </c>
       <c r="CA29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:136" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12460,8 +12473,8 @@
       <c r="AS30">
         <v>0</v>
       </c>
-      <c r="AT30">
-        <v>1</v>
+      <c r="AT30" s="6">
+        <v>4</v>
       </c>
       <c r="AU30">
         <v>1</v>
@@ -12560,178 +12573,178 @@
         <v>1</v>
       </c>
       <c r="CA30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DA30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DC30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DG30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DH30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DI30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DL30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DM30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DN30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DO30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DP30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DS30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DT30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DU30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DV30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DW30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DZ30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EA30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EB30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="ED30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EE30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EF30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:136" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24217,6 +24230,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24224,8 +24238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C08FFB-DE5E-4242-AD4D-9D3E99BD678C}">
   <dimension ref="A1:EF58"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:EF58"/>
+    <sheetView topLeftCell="B16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AW34" sqref="AW34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.109375" defaultRowHeight="11.55" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -48021,8 +48035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A921A2-5645-4F0C-8192-0AEE714EB34F}">
   <dimension ref="A1:EF58"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:EF58"/>
+    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AR39" sqref="AR39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.109375" defaultRowHeight="11.55" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -71818,8 +71832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EDED49-6D4C-45CB-9188-83CC1542C8F0}">
   <dimension ref="A1:EF58"/>
   <sheetViews>
-    <sheetView topLeftCell="M10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:EF58"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z50" sqref="Z50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -71834,6 +71848,7 @@
     <col min="103" max="104" width="2.109375" bestFit="1" customWidth="1"/>
     <col min="118" max="119" width="2.109375" bestFit="1" customWidth="1"/>
     <col min="133" max="135" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="5.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:136" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -95626,8 +95641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D078EA59-0F60-4827-82DC-A445AF65194E}">
   <dimension ref="A1:EP58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BI38" sqref="BI38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CW14" sqref="CW14:CW15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.88671875" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/data2.xlsx
+++ b/data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\PycharmProjects\Louvre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B6949F-0A34-4F62-8C5F-49944FD07D4F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BE42DB-93CD-4823-A056-1AF324608268}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15204" windowHeight="6252" activeTab="4" xr2:uid="{39FE6E89-DAFD-408F-A53E-6D0DEC2E7108}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15204" windowHeight="6252" activeTab="1" xr2:uid="{39FE6E89-DAFD-408F-A53E-6D0DEC2E7108}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6" sheetId="6" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +30,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,8 +46,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -84,6 +92,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -94,12 +107,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -121,9 +137,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -24238,11 +24258,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C08FFB-DE5E-4242-AD4D-9D3E99BD678C}">
   <dimension ref="A1:EF58"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AW34" sqref="AW34"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BM12" sqref="BM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.109375" defaultRowHeight="11.55" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="85" max="86" width="2.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:136" ht="11.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -34750,7 +34773,7 @@
       <c r="CG26">
         <v>1</v>
       </c>
-      <c r="CH26">
+      <c r="CH26" s="7">
         <v>1</v>
       </c>
       <c r="CI26">
@@ -35157,10 +35180,10 @@
       <c r="CF27">
         <v>0</v>
       </c>
-      <c r="CG27">
-        <v>1</v>
-      </c>
-      <c r="CH27">
+      <c r="CG27" s="7">
+        <v>1</v>
+      </c>
+      <c r="CH27" s="7">
         <v>1</v>
       </c>
       <c r="CI27">
@@ -35567,7 +35590,7 @@
       <c r="CF28">
         <v>1</v>
       </c>
-      <c r="CG28">
+      <c r="CG28" s="7">
         <v>1</v>
       </c>
       <c r="CH28">
@@ -48035,8 +48058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A921A2-5645-4F0C-8192-0AEE714EB34F}">
   <dimension ref="A1:EF58"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AR39" sqref="AR39"/>
+    <sheetView topLeftCell="AA1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="CG9" activeCellId="2" sqref="BX1:CG1 CG2:CG8 CG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.109375" defaultRowHeight="11.55" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -95641,7 +95664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D078EA59-0F60-4827-82DC-A445AF65194E}">
   <dimension ref="A1:EP58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="CW14" sqref="CW14:CW15"/>
     </sheetView>
   </sheetViews>

--- a/data2.xlsx
+++ b/data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\PycharmProjects\Louvre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BE42DB-93CD-4823-A056-1AF324608268}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D0AB1A-4630-4BCF-AF0A-438EFFEA619A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15204" windowHeight="6252" activeTab="1" xr2:uid="{39FE6E89-DAFD-408F-A53E-6D0DEC2E7108}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15204" windowHeight="6252" activeTab="3" xr2:uid="{39FE6E89-DAFD-408F-A53E-6D0DEC2E7108}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,8 +54,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,8 +106,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -106,16 +120,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -140,9 +172,13 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="计算" xfId="2" builtinId="22"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,7 +494,7 @@
   <dimension ref="A1:EF58"/>
   <sheetViews>
     <sheetView topLeftCell="AQ7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BP16" sqref="BO16:BP16"/>
+      <selection activeCell="AQ7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24249,6 +24285,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -24258,13 +24306,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C08FFB-DE5E-4242-AD4D-9D3E99BD678C}">
   <dimension ref="A1:EF58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BM12" sqref="BM12"/>
+    <sheetView topLeftCell="AG18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BE59" sqref="BE59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.109375" defaultRowHeight="11.55" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="85" max="86" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="83" max="86" width="2.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:136" ht="11.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -44197,7 +44245,7 @@
       <c r="CE49">
         <v>1</v>
       </c>
-      <c r="CF49">
+      <c r="CF49" s="8">
         <v>1</v>
       </c>
       <c r="CG49">
@@ -44604,7 +44652,7 @@
       <c r="CD50">
         <v>1</v>
       </c>
-      <c r="CE50">
+      <c r="CE50" s="8">
         <v>1</v>
       </c>
       <c r="CF50">
@@ -48049,6 +48097,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:EF58">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -48058,11 +48118,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A921A2-5645-4F0C-8192-0AEE714EB34F}">
   <dimension ref="A1:EF58"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="CG9" activeCellId="2" sqref="BX1:CG1 CG2:CG8 CG9"/>
+    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="CK45" sqref="CK45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.109375" defaultRowHeight="11.55" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="84" max="84" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="3.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:136" ht="11.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -51184,7 +51248,7 @@
       <c r="CE8">
         <v>1</v>
       </c>
-      <c r="CF8">
+      <c r="CF8" s="7">
         <v>1</v>
       </c>
       <c r="CG8">
@@ -52055,7 +52119,7 @@
       <c r="CV10">
         <v>1</v>
       </c>
-      <c r="CW10">
+      <c r="CW10" s="7">
         <v>1</v>
       </c>
       <c r="CX10">
@@ -71846,6 +71910,30 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="CW9">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -71855,8 +71943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EDED49-6D4C-45CB-9188-83CC1542C8F0}">
   <dimension ref="A1:EF58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z50" sqref="Z50"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BL10" sqref="BL10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -71865,7 +71953,8 @@
     <col min="60" max="60" width="2.109375" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="2.109375" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="71" max="72" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="2.77734375" bestFit="1" customWidth="1"/>
     <col min="89" max="89" width="2.109375" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="2.109375" bestFit="1" customWidth="1"/>
     <col min="103" max="104" width="2.109375" bestFit="1" customWidth="1"/>
@@ -75974,7 +76063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:136" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:136" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -77418,10 +77507,10 @@
       <c r="BS14">
         <v>1</v>
       </c>
-      <c r="BT14">
-        <v>1</v>
-      </c>
-      <c r="BU14">
+      <c r="BT14" s="7">
+        <v>1</v>
+      </c>
+      <c r="BU14" s="7">
         <v>1</v>
       </c>
       <c r="BV14">
@@ -89504,7 +89593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:136" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:136" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>0</v>
       </c>
@@ -95656,6 +95745,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -95665,7 +95766,7 @@
   <dimension ref="A1:EP58"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="CW14" sqref="CW14:CW15"/>
+      <selection activeCell="BR33" sqref="BR33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.88671875" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -121199,6 +121300,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data2.xlsx
+++ b/data2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen\PycharmProjects\Louvre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D0AB1A-4630-4BCF-AF0A-438EFFEA619A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EF1C5A-A7F6-493E-89AD-B90D9385552C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15204" windowHeight="6252" activeTab="3" xr2:uid="{39FE6E89-DAFD-408F-A53E-6D0DEC2E7108}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15204" windowHeight="6252" activeTab="2" xr2:uid="{39FE6E89-DAFD-408F-A53E-6D0DEC2E7108}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet6" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,17 +54,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -106,13 +97,8 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -120,34 +106,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -172,13 +140,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="计算" xfId="2" builtinId="22"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,7 +458,7 @@
   <dimension ref="A1:EF58"/>
   <sheetViews>
     <sheetView topLeftCell="AQ7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AQ7" sqref="A1:XFD1048576"/>
+      <selection activeCell="BT30" sqref="BT30:BT36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.33203125" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -24306,13 +24270,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C08FFB-DE5E-4242-AD4D-9D3E99BD678C}">
   <dimension ref="A1:EF58"/>
   <sheetViews>
-    <sheetView topLeftCell="AG18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BE59" sqref="BE59"/>
+    <sheetView topLeftCell="AS19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="CK49" sqref="CK49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.109375" defaultRowHeight="11.55" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="60" max="60" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="2.77734375" bestFit="1" customWidth="1"/>
     <col min="83" max="86" width="2.77734375" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="2.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:136" ht="11.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -34409,34 +34376,34 @@
         <v>0</v>
       </c>
       <c r="CG25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ25">
         <v>0</v>
@@ -34819,34 +34786,34 @@
         <v>0</v>
       </c>
       <c r="CG26">
-        <v>1</v>
-      </c>
-      <c r="CH26" s="7">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="CH26">
+        <v>0</v>
       </c>
       <c r="CI26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ26">
         <v>0</v>
@@ -35228,35 +35195,35 @@
       <c r="CF27">
         <v>0</v>
       </c>
-      <c r="CG27" s="7">
-        <v>1</v>
-      </c>
-      <c r="CH27" s="7">
-        <v>1</v>
+      <c r="CG27">
+        <v>0</v>
+      </c>
+      <c r="CH27">
+        <v>0</v>
       </c>
       <c r="CI27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ27">
         <v>0</v>
@@ -37279,34 +37246,34 @@
         <v>0</v>
       </c>
       <c r="CG32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ32">
         <v>0</v>
@@ -37689,34 +37656,34 @@
         <v>0</v>
       </c>
       <c r="CG33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ33">
         <v>0</v>
@@ -38099,34 +38066,34 @@
         <v>0</v>
       </c>
       <c r="CG34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ34">
         <v>0</v>
@@ -41711,40 +41678,40 @@
         <v>0</v>
       </c>
       <c r="BG43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS43">
         <v>1</v>
@@ -42121,40 +42088,40 @@
         <v>0</v>
       </c>
       <c r="BG44">
-        <v>1</v>
-      </c>
-      <c r="BH44" s="2">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="BH44">
+        <v>0</v>
       </c>
       <c r="BI44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS44">
         <v>1</v>
@@ -42211,7 +42178,7 @@
         <v>1</v>
       </c>
       <c r="CK44" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CL44">
         <v>1</v>
@@ -42531,40 +42498,40 @@
         <v>0</v>
       </c>
       <c r="BG45">
-        <v>1</v>
-      </c>
-      <c r="BH45" s="2">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="BH45">
+        <v>0</v>
       </c>
       <c r="BI45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS45">
         <v>1</v>
@@ -42576,10 +42543,10 @@
         <v>1</v>
       </c>
       <c r="BV45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BW45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BX45">
         <v>1</v>
@@ -42621,7 +42588,7 @@
         <v>1</v>
       </c>
       <c r="CK45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CL45">
         <v>1</v>
@@ -42941,40 +42908,40 @@
         <v>0</v>
       </c>
       <c r="BG46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS46">
         <v>1</v>
@@ -42986,10 +42953,10 @@
         <v>1</v>
       </c>
       <c r="BV46" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BW46" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BX46">
         <v>1</v>
@@ -43351,16 +43318,16 @@
         <v>0</v>
       </c>
       <c r="BG47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK47">
         <v>0</v>
@@ -43387,52 +43354,52 @@
         <v>0</v>
       </c>
       <c r="BS47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU47">
         <v>1</v>
       </c>
-      <c r="BV47">
-        <v>1</v>
-      </c>
-      <c r="BW47">
+      <c r="BV47" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW47" s="2">
         <v>1</v>
       </c>
       <c r="BX47">
         <v>1</v>
       </c>
       <c r="BY47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CA47">
         <v>1</v>
       </c>
       <c r="CB47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF47">
         <v>1</v>
       </c>
       <c r="CG47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CH47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI47">
         <v>1</v>
@@ -43761,16 +43728,16 @@
         <v>0</v>
       </c>
       <c r="BG48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK48">
         <v>0</v>
@@ -43797,25 +43764,25 @@
         <v>0</v>
       </c>
       <c r="BS48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU48">
         <v>1</v>
       </c>
-      <c r="BV48">
-        <v>1</v>
-      </c>
-      <c r="BW48">
+      <c r="BV48" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW48" s="2">
         <v>1</v>
       </c>
       <c r="BX48">
         <v>1</v>
       </c>
       <c r="BY48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ48">
         <v>1</v>
@@ -43842,7 +43809,7 @@
         <v>1</v>
       </c>
       <c r="CH48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI48">
         <v>1</v>
@@ -44171,16 +44138,16 @@
         <v>0</v>
       </c>
       <c r="BG49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK49">
         <v>0</v>
@@ -44207,18 +44174,18 @@
         <v>0</v>
       </c>
       <c r="BS49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU49">
         <v>1</v>
       </c>
-      <c r="BV49">
-        <v>1</v>
-      </c>
-      <c r="BW49">
+      <c r="BV49" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW49" s="2">
         <v>1</v>
       </c>
       <c r="BX49">
@@ -44245,14 +44212,14 @@
       <c r="CE49">
         <v>1</v>
       </c>
-      <c r="CF49" s="8">
+      <c r="CF49">
         <v>1</v>
       </c>
       <c r="CG49">
         <v>1</v>
       </c>
       <c r="CH49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI49">
         <v>1</v>
@@ -44581,16 +44548,16 @@
         <v>0</v>
       </c>
       <c r="BG50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK50">
         <v>0</v>
@@ -44617,25 +44584,25 @@
         <v>0</v>
       </c>
       <c r="BS50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU50">
         <v>1</v>
       </c>
-      <c r="BV50">
-        <v>1</v>
-      </c>
-      <c r="BW50">
+      <c r="BV50" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW50" s="2">
         <v>1</v>
       </c>
       <c r="BX50">
         <v>1</v>
       </c>
       <c r="BY50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ50">
         <v>1</v>
@@ -44652,7 +44619,7 @@
       <c r="CD50">
         <v>1</v>
       </c>
-      <c r="CE50" s="8">
+      <c r="CE50">
         <v>1</v>
       </c>
       <c r="CF50">
@@ -44662,7 +44629,7 @@
         <v>1</v>
       </c>
       <c r="CH50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI50">
         <v>1</v>
@@ -44991,16 +44958,16 @@
         <v>0</v>
       </c>
       <c r="BG51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK51">
         <v>0</v>
@@ -45027,25 +44994,25 @@
         <v>0</v>
       </c>
       <c r="BS51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BU51">
         <v>1</v>
       </c>
-      <c r="BV51">
-        <v>1</v>
-      </c>
-      <c r="BW51">
+      <c r="BV51" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW51" s="2">
         <v>1</v>
       </c>
       <c r="BX51">
         <v>1</v>
       </c>
       <c r="BY51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ51">
         <v>1</v>
@@ -45072,7 +45039,7 @@
         <v>1</v>
       </c>
       <c r="CH51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI51">
         <v>1</v>
@@ -45401,16 +45368,16 @@
         <v>0</v>
       </c>
       <c r="BG52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK52">
         <v>0</v>
@@ -45443,88 +45410,88 @@
         <v>0</v>
       </c>
       <c r="BU52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY52">
         <v>0</v>
       </c>
       <c r="BZ52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH52">
         <v>0</v>
       </c>
       <c r="CI52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ52">
-        <v>1</v>
-      </c>
-      <c r="CK52" s="2">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="CK52">
+        <v>0</v>
       </c>
       <c r="CL52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW52">
         <v>0</v>
@@ -45811,16 +45778,16 @@
         <v>0</v>
       </c>
       <c r="BG53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK53">
         <v>0</v>
@@ -45853,88 +45820,88 @@
         <v>0</v>
       </c>
       <c r="BU53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY53">
         <v>0</v>
       </c>
       <c r="BZ53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH53">
         <v>0</v>
       </c>
       <c r="CI53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW53">
         <v>0</v>
@@ -46221,16 +46188,16 @@
         <v>0</v>
       </c>
       <c r="BG54">
-        <v>1</v>
-      </c>
-      <c r="BH54" s="2">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="BH54">
+        <v>0</v>
       </c>
       <c r="BI54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK54">
         <v>0</v>
@@ -46263,16 +46230,16 @@
         <v>0</v>
       </c>
       <c r="BU54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY54">
         <v>0</v>
@@ -46284,67 +46251,67 @@
         <v>0</v>
       </c>
       <c r="CB54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH54">
         <v>0</v>
       </c>
       <c r="CI54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW54">
         <v>0</v>
@@ -46631,130 +46598,130 @@
         <v>0</v>
       </c>
       <c r="BG55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW55">
         <v>0</v>
@@ -47041,130 +47008,130 @@
         <v>0</v>
       </c>
       <c r="BG56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW56">
         <v>0</v>
@@ -47451,130 +47418,130 @@
         <v>0</v>
       </c>
       <c r="BG57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV57">
-        <v>1</v>
-      </c>
-      <c r="BW57" s="2">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="BW57">
+        <v>0</v>
       </c>
       <c r="BX57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW57">
         <v>0</v>
@@ -47861,130 +47828,130 @@
         <v>0</v>
       </c>
       <c r="BG58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CO58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CW58">
         <v>0</v>
@@ -48118,13 +48085,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A921A2-5645-4F0C-8192-0AEE714EB34F}">
   <dimension ref="A1:EF58"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="CK45" sqref="CK45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="CI57" sqref="CI57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.109375" defaultRowHeight="11.55" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="60" max="60" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="3.21875" bestFit="1" customWidth="1"/>
     <col min="84" max="84" width="3.21875" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="3.21875" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="3.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -65937,7 +65907,7 @@
         <v>1</v>
       </c>
       <c r="BH44" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BI44" s="2">
         <v>2</v>
@@ -66024,7 +65994,7 @@
         <v>1</v>
       </c>
       <c r="CK44" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CL44">
         <v>1</v>
@@ -66347,7 +66317,7 @@
         <v>1</v>
       </c>
       <c r="BH45" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BI45" s="2">
         <v>2</v>
@@ -66388,11 +66358,11 @@
       <c r="BU45">
         <v>1</v>
       </c>
-      <c r="BV45" s="4">
-        <v>3</v>
-      </c>
-      <c r="BW45" s="4">
-        <v>3</v>
+      <c r="BV45">
+        <v>1</v>
+      </c>
+      <c r="BW45">
+        <v>1</v>
       </c>
       <c r="BX45">
         <v>1</v>
@@ -66434,7 +66404,7 @@
         <v>1</v>
       </c>
       <c r="CK45" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CL45">
         <v>1</v>
@@ -66798,11 +66768,11 @@
       <c r="BU46">
         <v>1</v>
       </c>
-      <c r="BV46" s="4">
-        <v>3</v>
-      </c>
-      <c r="BW46" s="4">
-        <v>3</v>
+      <c r="BV46">
+        <v>1</v>
+      </c>
+      <c r="BW46">
+        <v>1</v>
       </c>
       <c r="BX46">
         <v>1</v>
@@ -69304,7 +69274,7 @@
         <v>1</v>
       </c>
       <c r="CK52" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="CL52">
         <v>1</v>
@@ -70037,7 +70007,7 @@
         <v>1</v>
       </c>
       <c r="BH54" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BI54">
         <v>1</v>
@@ -71312,7 +71282,7 @@
         <v>1</v>
       </c>
       <c r="BW57" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BX57">
         <v>1</v>
@@ -71943,8 +71913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06EDED49-6D4C-45CB-9188-83CC1542C8F0}">
   <dimension ref="A1:EF58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BL10" sqref="BL10"/>
+    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BS3" sqref="BS3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.77734375" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -95766,7 +95736,7 @@
   <dimension ref="A1:EP58"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BR33" sqref="BR33"/>
+      <selection activeCell="BT3" sqref="BT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.88671875" defaultRowHeight="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
